--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="146">
   <si>
     <t>sw7</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +313,266 @@
   </si>
   <si>
     <t>latch_pc</t>
+  </si>
+  <si>
+    <t>state_o(flash)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxD_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tlb_ce_i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_reg1_o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_reg2_o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfd0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7c00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>464c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>457f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4825</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4825</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regfile[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regfile[8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -659,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE80"/>
+  <dimension ref="A1:AE110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="J89" workbookViewId="0">
+      <selection activeCell="K102" sqref="K102:V102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3243,29 +3503,75 @@
       <c r="B57" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y57" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
       <c r="AC57" s="1"/>
@@ -3344,28 +3650,72 @@
       <c r="B60" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
@@ -3442,6 +3792,9 @@
       <c r="A63" t="s">
         <v>6</v>
       </c>
+      <c r="B63" t="s">
+        <v>81</v>
+      </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -3472,6 +3825,9 @@
       <c r="A64" t="s">
         <v>7</v>
       </c>
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3502,6 +3858,9 @@
       <c r="A65" t="s">
         <v>8</v>
       </c>
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -3565,29 +3924,75 @@
       <c r="B67" t="s">
         <v>77</v>
       </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="W67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X67" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y67" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
@@ -3598,29 +4003,75 @@
       <c r="B68" t="s">
         <v>30</v>
       </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y68" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
@@ -3634,29 +4085,75 @@
       <c r="B69" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="X69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y69" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
       <c r="AC69" s="1"/>
@@ -3668,6 +4165,64 @@
       <c r="B70" t="s">
         <v>32</v>
       </c>
+      <c r="C70" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
@@ -3679,29 +4234,75 @@
       <c r="B71" t="s">
         <v>33</v>
       </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="W71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y71" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="72" spans="1:31">
       <c r="A72" t="s">
@@ -3710,29 +4311,75 @@
       <c r="B72" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
-      <c r="X72" s="1"/>
-      <c r="Y72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y72" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
@@ -3743,29 +4390,75 @@
       <c r="B73" t="s">
         <v>35</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
-      <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>110</v>
+      </c>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
@@ -3905,6 +4598,9 @@
       <c r="A78" t="s">
         <v>21</v>
       </c>
+      <c r="B78" t="s">
+        <v>84</v>
+      </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3935,29 +4631,78 @@
       <c r="A79" t="s">
         <v>22</v>
       </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
-      <c r="Y79" s="1"/>
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U79" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V79" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y79" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
@@ -3965,31 +4710,1569 @@
       <c r="A80" t="s">
         <v>23</v>
       </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
-      <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
-      <c r="W80" s="1"/>
-      <c r="X80" s="1"/>
-      <c r="Y80" s="1"/>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y80" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
+    </row>
+    <row r="81" spans="1:25">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+    </row>
+    <row r="84" spans="1:25">
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>4</v>
+      </c>
+      <c r="G84">
+        <v>5</v>
+      </c>
+      <c r="H84">
+        <v>6</v>
+      </c>
+      <c r="I84">
+        <v>7</v>
+      </c>
+      <c r="J84">
+        <v>8</v>
+      </c>
+      <c r="K84">
+        <v>9</v>
+      </c>
+      <c r="L84">
+        <v>10</v>
+      </c>
+      <c r="M84">
+        <v>11</v>
+      </c>
+      <c r="N84">
+        <v>12</v>
+      </c>
+      <c r="O84">
+        <v>13</v>
+      </c>
+      <c r="P84">
+        <v>14</v>
+      </c>
+      <c r="Q84">
+        <v>15</v>
+      </c>
+      <c r="R84">
+        <v>16</v>
+      </c>
+      <c r="S84">
+        <v>17</v>
+      </c>
+      <c r="T84">
+        <v>18</v>
+      </c>
+      <c r="U84">
+        <v>19</v>
+      </c>
+      <c r="V84">
+        <v>20</v>
+      </c>
+      <c r="W84">
+        <v>21</v>
+      </c>
+      <c r="X84">
+        <v>22</v>
+      </c>
+      <c r="Y84">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T85" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U85" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V85" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W85" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="X85" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y85" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+    </row>
+    <row r="87" spans="1:25">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+    </row>
+    <row r="88" spans="1:25">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" s="1">
+        <v>4</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="U88" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V88" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W88" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X88" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y88" s="1"/>
+    </row>
+    <row r="89" spans="1:25">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+    </row>
+    <row r="90" spans="1:25">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+    </row>
+    <row r="91" spans="1:25">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+    </row>
+    <row r="92" spans="1:25">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>82</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+    </row>
+    <row r="93" spans="1:25">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>83</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+    </row>
+    <row r="94" spans="1:25">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+    </row>
+    <row r="95" spans="1:25">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="W95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X95" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y95" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>30</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T96" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U96" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V96" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W96" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X96" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y96" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S97" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T97" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U97" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V97" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W97" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="X97" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y97" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="S98" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T98" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="U98" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V98" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W98" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X98" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y98" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L99" s="1">
+        <v>0</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="W99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y99" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25">
+      <c r="A100" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" t="s">
+        <v>34</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="U100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="X100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y100" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y101" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25">
+      <c r="A102" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" t="s">
+        <v>36</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+    </row>
+    <row r="103" spans="1:25">
+      <c r="A103" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+    </row>
+    <row r="104" spans="1:25">
+      <c r="A104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104" t="s">
+        <v>79</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+    </row>
+    <row r="105" spans="1:25">
+      <c r="A105" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" t="s">
+        <v>80</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+    </row>
+    <row r="106" spans="1:25">
+      <c r="A106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+    </row>
+    <row r="107" spans="1:25">
+      <c r="A107" t="s">
+        <v>22</v>
+      </c>
+      <c r="B107" t="s">
+        <v>85</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U107" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V107" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y107" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25">
+      <c r="A108" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" t="s">
+        <v>86</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U108" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V108" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y108" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25">
+      <c r="B109" t="s">
+        <v>142</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1">
+        <v>0</v>
+      </c>
+      <c r="K109" s="1">
+        <v>0</v>
+      </c>
+      <c r="L109" s="1">
+        <v>0</v>
+      </c>
+      <c r="M109" s="1">
+        <v>0</v>
+      </c>
+      <c r="N109" s="1">
+        <v>0</v>
+      </c>
+      <c r="O109" s="1">
+        <v>0</v>
+      </c>
+      <c r="P109" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S109" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T109" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U109" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V109" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W109" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="X109" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y109" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25">
+      <c r="B110" t="s">
+        <v>143</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="W110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y110" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
